--- a/similarities/split_global/harmonic_similarity_timestamps_377.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_377.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'F:7']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.779977', '0:01:15.482834')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:15.420000', '0:00:19.480000')]</t>
+          <t>('0:00:07.284457', '0:00:22.098788')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=15.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:10.260000', '0:00:24.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:43.880000', '0:00:52.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'F#:dim7', 'G:min', 'F#:dim7'], ['D:7', 'G:min', 'F#:dim7', 'G:min']]</t>
+          <t>['B:7', 'E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['A:7', 'D', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:18.200000', '0:00:23.320000'), ('0:00:16.920000', '0:00:22.040000')]</t>
+          <t>('0:00:04.140000', '0:00:13.420000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.600000'), ('0:01:18.740000', '0:01:29.260000')]</t>
+          <t>('0:00:20.648911', '0:00:30.830861')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=18.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=78.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.100000', '0:00:45.980000')]</t>
+          <t>('0:01:04.514625', '0:01:32.970680')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:01:02.460000')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=18.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.610000', '0:00:10.460000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:20.672131')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_68</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'D#:dim7', 'C']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'A:dim7', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.665842', '0:00:28.172176')]</t>
+          <t>('0:00:29.220000', '0:01:02.420000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.910000', '0:00:14.650000')]</t>
+          <t>('0:00:10.380000', '0:00:25.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-68#t=1.665842']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=11.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F'], ['G:7', 'C', 'F']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A'], ['B:7', 'E', 'A']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000'), ('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:02:04.920000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:31.172811', '0:00:46.428321'), ('0:01:05.956303', '0:01:15.755124')]</t>
+          <t>('0:01:00.761383', '0:01:12.162380')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=31.172811', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=65.956303']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:23.800000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=23.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:36.600000', '0:00:39')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:38.520000')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=36.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['F:maj', 'G', 'C:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:32.808000', '0:00:36.091000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000')]</t>
+          <t>('0:00:44.836000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:7', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['D:7', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+          <t>('0:00:14.280000', '0:00:18.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:01:16.958000', '0:01:25.346000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=14.28</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=76.958</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:11.380000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_201</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:min', 'Eb', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A']]</t>
+          <t>['Bb:min', 'Ab:maj', 'Bb:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:03.680000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:55.860352', '0:01:03.046928')]</t>
+          <t>('0:00:03.599000', '0:00:06.409000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=3.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=55.860352']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-201#t=3.599</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
